--- a/JS Web Dev.xlsx
+++ b/JS Web Dev.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>Required Tech.</t>
   </si>
@@ -25,46 +25,82 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Work list</t>
+  </si>
+  <si>
+    <t>Current Admin Panel to improve</t>
+  </si>
+  <si>
+    <t>New Platform on Wordpress</t>
+  </si>
+  <si>
+    <t>15th July</t>
+  </si>
+  <si>
+    <t>SEO of jansatyagrah.in</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSL </t>
   </si>
   <si>
     <t>Comodo SSL</t>
   </si>
   <si>
-    <t>Work list</t>
-  </si>
-  <si>
-    <t>Admin Panel to improve</t>
-  </si>
-  <si>
-    <t>New Platform on Wordpress</t>
-  </si>
-  <si>
-    <t>SEO of jansatyagrah.in</t>
+    <t>Lets Encrypt</t>
+  </si>
+  <si>
+    <t>Widgets</t>
+  </si>
+  <si>
+    <t>reCAPTCHA</t>
+  </si>
+  <si>
+    <t>Project timeline</t>
+  </si>
+  <si>
+    <t>DocInfo</t>
+  </si>
+  <si>
+    <t>Content Security Policy</t>
+  </si>
+  <si>
+    <t>Java Script</t>
+  </si>
+  <si>
+    <t>Facebook for Websites</t>
+  </si>
+  <si>
+    <t>Facebook SDK</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Facebook Custom Audiences</t>
+  </si>
+  <si>
+    <t>Twitter Cards</t>
+  </si>
+  <si>
+    <t>Windows 8 Pinning</t>
+  </si>
+  <si>
+    <t>Adwords</t>
+  </si>
+  <si>
+    <t>Email Hosting Providers</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WordPress also features integrated link management; a search engine–friendly, clean permalink structure; the ability to assign multiple categories to posts; and support for tagging of posts. </t>
   </si>
   <si>
     <t>To find out the bugs area, Will fix those</t>
   </si>
   <si>
-    <t>No considerable timing will be taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To do more homework for possible options; </t>
-  </si>
-  <si>
-    <t>Consult in circle: Ashish</t>
-  </si>
-  <si>
-    <t>Finalise the platform</t>
-  </si>
-  <si>
-    <t>Architecture design &amp; Technology selection</t>
-  </si>
-  <si>
-    <t>Segregation of work</t>
-  </si>
-  <si>
-    <t>Project timeline</t>
+    <t>My homework to list steps &amp; technologies</t>
   </si>
   <si>
     <t>Beta Version of Website</t>
@@ -97,6 +133,9 @@
     <t>Market study, mainly competitors</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>Technologies selection</t>
   </si>
   <si>
@@ -106,60 +145,111 @@
     <t>Theme selection, Sitemap</t>
   </si>
   <si>
+    <t>To sit w/ Prashant to break development steps</t>
+  </si>
+  <si>
+    <t>Admin Panel critical,</t>
+  </si>
+  <si>
+    <t>After deciding tasks to outsource</t>
+  </si>
+  <si>
     <t>Coding</t>
   </si>
   <si>
+    <t>To take the demo of themes for selection</t>
+  </si>
+  <si>
     <t>Plugins</t>
   </si>
   <si>
+    <t>To consult &amp; take quotation: Ranchhod, Ashish' frnd, Pune based</t>
+  </si>
+  <si>
     <t>Deploy</t>
   </si>
   <si>
-    <t>DocInfo</t>
-  </si>
-  <si>
-    <t>Twitter Cards</t>
-  </si>
-  <si>
-    <t>Lets Encrypt</t>
-  </si>
-  <si>
-    <t>Widgets</t>
-  </si>
-  <si>
-    <t>reCAPTCHA</t>
-  </si>
-  <si>
-    <t>Content Security Policy</t>
-  </si>
-  <si>
-    <t>Java Script</t>
-  </si>
-  <si>
-    <t>Facebook for Websites</t>
+    <t>Meta data put</t>
+  </si>
+  <si>
+    <t>KT sessions by Ankit</t>
+  </si>
+  <si>
+    <t>Modifications in Ads &amp; site contents</t>
+  </si>
+  <si>
+    <t>Add/Remover per relevance</t>
+  </si>
+  <si>
+    <t>Budget to set</t>
+  </si>
+  <si>
+    <t>On page SEO to be done as per Ankit's i/p</t>
+  </si>
+  <si>
+    <t>Off page SEO to ask Ayush to trigger from his side</t>
+  </si>
+  <si>
+    <t>from next week</t>
+  </si>
+  <si>
+    <t>Automatic filters are also included, providing standardized formatting and styling of text in posts (for example, converting regular quotes to smart quotes).</t>
+  </si>
+  <si>
+    <t>WordPress also supports the Trackback and Pingback standards for displaying links to other sites that have themselves linked to a post or an article.</t>
+  </si>
+  <si>
+    <t>Wordpress MU</t>
+  </si>
+  <si>
+    <t>WordPress MU makes it possible for those with websites to host their own blogging communities, as well as control and moderate all the blogs from a single dashboard.</t>
+  </si>
+  <si>
+    <t>Constantly to take the updates is necessary</t>
+  </si>
+  <si>
+    <t>Developers can also use tools to analyze potential vulnerabilities, including WPScan, WordPress Auditor and WordPress Sploit Framework developed by 0pc0deFR</t>
+  </si>
+  <si>
+    <t>WPScan is a WordPress specific security scanner.</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Sharing posts to social networks is the matter of a single click, and visitors can easily subscribe to sub feeds from a website via their most preferred feed readers including email clients.</t>
+  </si>
+  <si>
+    <t>Coding Wizard for Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding wizards continue to enjoy the advantage of their skills, using which they can customize the very look and feel of their WordPress websites. </t>
+  </si>
+  <si>
+    <t>The visual editor of WordPress is as easy as using MS Word, and that’s as easy as it can get.</t>
+  </si>
+  <si>
+    <t>More &amp; more plugins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The urge to install even rarely useful plugins can easily lead to an overdose of plugins for your WordPress website. Too many plugins slow the script and the impact is felt while you begin creating your web pages using WordPress editor. </t>
+  </si>
+  <si>
+    <t>http://www.webbuildersguide.com/website-builder-articles/pros-and-cons-of-wordpress/</t>
   </si>
   <si>
     <t>Content Delivery Network</t>
   </si>
   <si>
-    <t>Facebook SDK</t>
-  </si>
-  <si>
     <t>SEO friendly plugins</t>
   </si>
   <si>
     <t>Word Press</t>
   </si>
   <si>
-    <t>Advertising</t>
-  </si>
-  <si>
     <t>Pros</t>
   </si>
   <si>
-    <t>Facebook Custom Audiences</t>
-  </si>
-  <si>
     <t>Cons</t>
   </si>
   <si>
@@ -169,24 +259,15 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>Windows 8 Pinning</t>
-  </si>
-  <si>
     <t>SEO friendly</t>
   </si>
   <si>
-    <t>Email Hosting Providers</t>
-  </si>
-  <si>
     <t>Many Plugins ready</t>
   </si>
   <si>
     <t xml:space="preserve">Will not difference similar apperance; </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>If want to create some customisation, then responsive designer be present</t>
   </si>
   <si>
@@ -197,54 +278,6 @@
   </si>
   <si>
     <t>Difficulty when complexity improve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WordPress also features integrated link management; a search engine–friendly, clean permalink structure; the ability to assign multiple categories to posts; and support for tagging of posts. </t>
-  </si>
-  <si>
-    <t>Automatic filters are also included, providing standardized formatting and styling of text in posts (for example, converting regular quotes to smart quotes).</t>
-  </si>
-  <si>
-    <t>WordPress also supports the Trackback and Pingback standards for displaying links to other sites that have themselves linked to a post or an article.</t>
-  </si>
-  <si>
-    <t>Wordpress MU</t>
-  </si>
-  <si>
-    <t>WordPress MU makes it possible for those with websites to host their own blogging communities, as well as control and moderate all the blogs from a single dashboard.</t>
-  </si>
-  <si>
-    <t>Constantly to take the updates is necessary</t>
-  </si>
-  <si>
-    <t>Developers can also use tools to analyze potential vulnerabilities, including WPScan, WordPress Auditor and WordPress Sploit Framework developed by 0pc0deFR</t>
-  </si>
-  <si>
-    <t>WPScan is a WordPress specific security scanner.</t>
-  </si>
-  <si>
-    <t>Social Media</t>
-  </si>
-  <si>
-    <t>Sharing posts to social networks is the matter of a single click, and visitors can easily subscribe to sub feeds from a website via their most preferred feed readers including email clients.</t>
-  </si>
-  <si>
-    <t>Coding Wizard for Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coding wizards continue to enjoy the advantage of their skills, using which they can customize the very look and feel of their WordPress websites. </t>
-  </si>
-  <si>
-    <t>The visual editor of WordPress is as easy as using MS Word, and that’s as easy as it can get.</t>
-  </si>
-  <si>
-    <t>More &amp; more plugins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The urge to install even rarely useful plugins can easily lead to an overdose of plugins for your WordPress website. Too many plugins slow the script and the impact is felt while you begin creating your web pages using WordPress editor. </t>
-  </si>
-  <si>
-    <t>http://www.webbuildersguide.com/website-builder-articles/pros-and-cons-of-wordpress/</t>
   </si>
 </sst>
 </file>
@@ -254,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d mmmm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -262,7 +295,15 @@
     </font>
     <font/>
     <font>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
       <b/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Roboto Slab&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -294,12 +335,18 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor rgb="FFFAFAFA"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -325,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -335,31 +382,37 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -395,11 +448,12 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.0"/>
     <col customWidth="1" min="2" max="2" width="40.57"/>
+    <col customWidth="1" min="3" max="3" width="24.14"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -407,7 +461,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -415,7 +469,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -423,58 +480,113 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
         <v>1.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>2.0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42906.0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>42909.0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <v>42914.0</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -496,43 +608,27 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>42906.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42909.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>42914.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -540,10 +636,10 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -551,10 +647,10 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +658,10 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -573,16 +669,16 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -591,10 +687,13 @@
         <v>1.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>42906.0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +701,7 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>42908.0</v>
@@ -613,7 +712,7 @@
         <v>3.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>42915.0</v>
@@ -623,8 +722,8 @@
       <c r="A18" s="1">
         <v>4.0</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>42916.0</v>
@@ -635,7 +734,7 @@
         <v>5.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
         <v>42925.0</v>
@@ -646,7 +745,7 @@
         <v>6.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>42932.0</v>
@@ -657,7 +756,7 @@
         <v>7.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
         <v>42936.0</v>
@@ -691,151 +790,151 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="6" t="s">
-        <v>61</v>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7" t="s">
-        <v>62</v>
+      <c r="B23" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7" t="s">
-        <v>63</v>
+      <c r="B24" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="8" t="s">
-        <v>67</v>
+      <c r="B28" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="9" t="s">
-        <v>68</v>
+      <c r="B30" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="10" t="s">
-        <v>73</v>
+      <c r="B34" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="11" t="s">
-        <v>76</v>
+      <c r="B38" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -860,91 +959,91 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="s">
-        <v>37</v>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
